--- a/results/case1/data_uniquie_case1_cut_off_recipe.xlsx
+++ b/results/case1/data_uniquie_case1_cut_off_recipe.xlsx
@@ -100,6 +100,9 @@
     <t>'market for electricity, high voltage' (kilowatt hour, DK, None)</t>
   </si>
   <si>
+    <t>'market for polyethylene, high density, granulate' (kilogram, GLO, None)</t>
+  </si>
+  <si>
     <t>'market for polypropylene, granulate' (kilogram, GLO, None)</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>'polyethylene terephthalate production, granulate, amorphous, recycled' (kilogram, Europe without Switzerland, None)</t>
-  </si>
-  <si>
-    <t>'polyethylene, high density, granulate, recycled to generic market for high density PE granulate' (kilogram, Europe without Switzerland, None)</t>
   </si>
   <si>
     <t>'steel production, chromium steel 18/8, hot rolled' (kilogram, RER, None)</t>
@@ -1055,67 +1055,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.006303521149639307</v>
+        <v>0.006377214017646726</v>
       </c>
       <c r="C9">
-        <v>2.37875563777962</v>
+        <v>2.406698064230334</v>
       </c>
       <c r="D9">
-        <v>0.05408767074693561</v>
+        <v>0.05493912310462069</v>
       </c>
       <c r="E9">
-        <v>0.07208146446314051</v>
+        <v>0.0732314094922404</v>
       </c>
       <c r="F9">
-        <v>5.129597044001549</v>
+        <v>5.460767646242815</v>
       </c>
       <c r="G9">
-        <v>1.713173815334067</v>
+        <v>1.678608761465053</v>
       </c>
       <c r="H9">
-        <v>0.0003886539704308827</v>
+        <v>0.0004017697222970732</v>
       </c>
       <c r="I9">
-        <v>3.880851505471736E-05</v>
+        <v>4.017367383896477E-05</v>
       </c>
       <c r="J9">
-        <v>0.08570471148664843</v>
+        <v>0.1018780177361981</v>
       </c>
       <c r="K9">
-        <v>1.151822911943575</v>
+        <v>1.17869488215942</v>
       </c>
       <c r="L9">
-        <v>0.04709684707343254</v>
+        <v>0.05835454715099068</v>
       </c>
       <c r="M9">
-        <v>0.01837651525876341</v>
+        <v>0.01933740963135711</v>
       </c>
       <c r="N9">
-        <v>0.02050259056868253</v>
+        <v>0.01897750680052767</v>
       </c>
       <c r="O9">
-        <v>2.69559654683206E-07</v>
+        <v>3.563324712799544E-07</v>
       </c>
       <c r="P9">
-        <v>0.002388588636694762</v>
+        <v>0.002501336860349595</v>
       </c>
       <c r="Q9">
-        <v>0.004929617339964927</v>
+        <v>0.005222143018741611</v>
       </c>
       <c r="R9">
-        <v>0.005278743536081112</v>
+        <v>0.005630454894346026</v>
       </c>
       <c r="S9">
-        <v>0.01752713856792733</v>
+        <v>0.02021411469063872</v>
       </c>
       <c r="T9">
-        <v>9.20759807955882E-09</v>
+        <v>9.368491677330599E-09</v>
       </c>
       <c r="U9">
-        <v>4.299010274051514E-06</v>
+        <v>4.46206053749059E-06</v>
       </c>
       <c r="V9">
-        <v>0.6788007264467441</v>
+        <v>0.6616379668554234</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1123,67 +1123,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>0.01162068860007563</v>
+        <v>0.006303521149639307</v>
       </c>
       <c r="C10">
-        <v>3.466886165026398</v>
+        <v>2.37875563777962</v>
       </c>
       <c r="D10">
-        <v>0.708616198428981</v>
+        <v>0.05408767074693561</v>
       </c>
       <c r="E10">
-        <v>0.891245650641432</v>
+        <v>0.07208146446314051</v>
       </c>
       <c r="F10">
-        <v>36.42125375375696</v>
+        <v>5.129597044001549</v>
       </c>
       <c r="G10">
-        <v>0.8974062379270858</v>
+        <v>1.713173815334067</v>
       </c>
       <c r="H10">
-        <v>0.003207825057067693</v>
+        <v>0.0003886539704308827</v>
       </c>
       <c r="I10">
-        <v>0.001413958191340403</v>
+        <v>3.880851505471736E-05</v>
       </c>
       <c r="J10">
-        <v>0.3160316960930757</v>
+        <v>0.08570471148664843</v>
       </c>
       <c r="K10">
-        <v>9.502532651339262</v>
+        <v>1.151822911943575</v>
       </c>
       <c r="L10">
-        <v>0.9889259696422618</v>
+        <v>0.04709684707343254</v>
       </c>
       <c r="M10">
-        <v>0.6648529043664776</v>
+        <v>0.01837651525876341</v>
       </c>
       <c r="N10">
-        <v>0.05724205329603996</v>
+        <v>0.02050259056868253</v>
       </c>
       <c r="O10">
-        <v>3.638717818586837E-06</v>
+        <v>2.69559654683206E-07</v>
       </c>
       <c r="P10">
-        <v>0.003997746823688176</v>
+        <v>0.002388588636694762</v>
       </c>
       <c r="Q10">
-        <v>0.007253941246305906</v>
+        <v>0.004929617339964927</v>
       </c>
       <c r="R10">
-        <v>0.007432664795682131</v>
+        <v>0.005278743536081112</v>
       </c>
       <c r="S10">
-        <v>0.05870154967624096</v>
+        <v>0.01752713856792733</v>
       </c>
       <c r="T10">
-        <v>2.217736218427763E-08</v>
+        <v>9.20759807955882E-09</v>
       </c>
       <c r="U10">
-        <v>9.091799570666448E-06</v>
+        <v>4.299010274051514E-06</v>
       </c>
       <c r="V10">
-        <v>0.1818204880923136</v>
+        <v>0.6788007264467441</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1191,67 +1191,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>6.876358196032201E-05</v>
+        <v>0.01162068860007563</v>
       </c>
       <c r="C11">
-        <v>0.01267497599794251</v>
+        <v>3.466886165026398</v>
       </c>
       <c r="D11">
-        <v>0.0005586102071236898</v>
+        <v>0.708616198428981</v>
       </c>
       <c r="E11">
-        <v>0.0007627765377616642</v>
+        <v>0.891245650641432</v>
       </c>
       <c r="F11">
-        <v>0.09878984579457513</v>
+        <v>36.42125375375696</v>
       </c>
       <c r="G11">
-        <v>0.003740653600910776</v>
+        <v>0.8974062379270858</v>
       </c>
       <c r="H11">
-        <v>3.560801285698288E-06</v>
+        <v>0.003207825057067693</v>
       </c>
       <c r="I11">
-        <v>6.615998424232711E-06</v>
+        <v>0.001413958191340403</v>
       </c>
       <c r="J11">
-        <v>0.0005924436287997828</v>
+        <v>0.3160316960930757</v>
       </c>
       <c r="K11">
-        <v>0.02391673913639036</v>
+        <v>9.502532651339262</v>
       </c>
       <c r="L11">
-        <v>0.0005196145678210233</v>
+        <v>0.9889259696422618</v>
       </c>
       <c r="M11">
-        <v>0.01378097797262985</v>
+        <v>0.6648529043664776</v>
       </c>
       <c r="N11">
-        <v>0.0001228804034346496</v>
+        <v>0.05724205329603996</v>
       </c>
       <c r="O11">
-        <v>3.059841386410641E-08</v>
+        <v>3.638717818586837E-06</v>
       </c>
       <c r="P11">
-        <v>2.999168173474216E-05</v>
+        <v>0.003997746823688176</v>
       </c>
       <c r="Q11">
-        <v>5.493019546254142E-05</v>
+        <v>0.007253941246305906</v>
       </c>
       <c r="R11">
-        <v>5.664655984587623E-05</v>
+        <v>0.007432664795682131</v>
       </c>
       <c r="S11">
-        <v>0.0002171164400579737</v>
+        <v>0.05870154967624096</v>
       </c>
       <c r="T11">
-        <v>1.83620598145776E-10</v>
+        <v>2.217736218427763E-08</v>
       </c>
       <c r="U11">
-        <v>3.859210047026E-08</v>
+        <v>9.091799570666448E-06</v>
       </c>
       <c r="V11">
-        <v>0.001192741620043858</v>
+        <v>0.1818204880923136</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1259,67 +1259,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.001440246811711599</v>
+        <v>6.876358196032201E-05</v>
       </c>
       <c r="C12">
-        <v>0.6372168144384575</v>
+        <v>0.01267497599794251</v>
       </c>
       <c r="D12">
-        <v>0.07976704019164554</v>
+        <v>0.0005586102071236898</v>
       </c>
       <c r="E12">
-        <v>0.1062083058458602</v>
+        <v>0.0007627765377616642</v>
       </c>
       <c r="F12">
-        <v>4.704536477112582</v>
+        <v>0.09878984579457513</v>
       </c>
       <c r="G12">
-        <v>0.1437812388304611</v>
+        <v>0.003740653600910776</v>
       </c>
       <c r="H12">
-        <v>0.0002276075198896204</v>
+        <v>3.560801285698288E-06</v>
       </c>
       <c r="I12">
-        <v>0.0001474222404903377</v>
+        <v>6.615998424232711E-06</v>
       </c>
       <c r="J12">
-        <v>0.07681775993075093</v>
+        <v>0.0005924436287997828</v>
       </c>
       <c r="K12">
-        <v>1.470723078835662</v>
+        <v>0.02391673913639036</v>
       </c>
       <c r="L12">
-        <v>0.1171778795913031</v>
+        <v>0.0005196145678210233</v>
       </c>
       <c r="M12">
-        <v>0.02330676267912464</v>
+        <v>0.01378097797262985</v>
       </c>
       <c r="N12">
-        <v>0.01675322770601377</v>
+        <v>0.0001228804034346496</v>
       </c>
       <c r="O12">
-        <v>2.466677334356431E-07</v>
+        <v>3.059841386410641E-08</v>
       </c>
       <c r="P12">
-        <v>0.0006523257277279103</v>
+        <v>2.999168173474216E-05</v>
       </c>
       <c r="Q12">
-        <v>0.001241821658309991</v>
+        <v>5.493019546254142E-05</v>
       </c>
       <c r="R12">
-        <v>0.001304905159684048</v>
+        <v>5.664655984587623E-05</v>
       </c>
       <c r="S12">
-        <v>0.004383512454067819</v>
+        <v>0.0002171164400579737</v>
       </c>
       <c r="T12">
-        <v>2.737740855727157E-09</v>
+        <v>1.83620598145776E-10</v>
       </c>
       <c r="U12">
-        <v>1.603706687373066E-06</v>
+        <v>3.859210047026E-08</v>
       </c>
       <c r="V12">
-        <v>0.04916392706352589</v>
+        <v>0.001192741620043858</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1327,67 +1327,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.002444220080067728</v>
+        <v>0.001440246811711599</v>
       </c>
       <c r="C13">
-        <v>0.9739013216613021</v>
+        <v>0.6372168144384575</v>
       </c>
       <c r="D13">
-        <v>0.1854003880837879</v>
+        <v>0.07976704019164554</v>
       </c>
       <c r="E13">
-        <v>0.2440385434196954</v>
+        <v>0.1062083058458602</v>
       </c>
       <c r="F13">
-        <v>6.91047512884955</v>
+        <v>4.704536477112582</v>
       </c>
       <c r="G13">
-        <v>0.274531497167821</v>
+        <v>0.1437812388304611</v>
       </c>
       <c r="H13">
-        <v>0.0004186046835009612</v>
+        <v>0.0002276075198896204</v>
       </c>
       <c r="I13">
-        <v>0.0001821500342927365</v>
+        <v>0.0001474222404903377</v>
       </c>
       <c r="J13">
-        <v>0.1081739518915129</v>
+        <v>0.07681775993075093</v>
       </c>
       <c r="K13">
-        <v>3.491392311346866</v>
+        <v>1.470723078835662</v>
       </c>
       <c r="L13">
-        <v>0.2192466562968809</v>
+        <v>0.1171778795913031</v>
       </c>
       <c r="M13">
-        <v>0.03347840958168349</v>
+        <v>0.02330676267912464</v>
       </c>
       <c r="N13">
-        <v>0.02266609051986815</v>
+        <v>0.01675322770601377</v>
       </c>
       <c r="O13">
-        <v>3.870600228465369E-07</v>
+        <v>2.466677334356431E-07</v>
       </c>
       <c r="P13">
-        <v>0.001064864197957477</v>
+        <v>0.0006523257277279103</v>
       </c>
       <c r="Q13">
-        <v>0.002034292530566478</v>
+        <v>0.001241821658309991</v>
       </c>
       <c r="R13">
-        <v>0.002146172401584552</v>
+        <v>0.001304905159684048</v>
       </c>
       <c r="S13">
-        <v>0.007903182014900093</v>
+        <v>0.004383512454067819</v>
       </c>
       <c r="T13">
-        <v>4.333016409060206E-09</v>
+        <v>2.737740855727157E-09</v>
       </c>
       <c r="U13">
-        <v>2.74986096682446E-06</v>
+        <v>1.603706687373066E-06</v>
       </c>
       <c r="V13">
-        <v>0.09029821438041062</v>
+        <v>0.04916392706352589</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1395,67 +1395,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>0.001686106085702331</v>
+        <v>0.002444220080067728</v>
       </c>
       <c r="C14">
-        <v>0.7234644004885276</v>
+        <v>0.9739013216613021</v>
       </c>
       <c r="D14">
-        <v>0.08197067996903275</v>
+        <v>0.1854003880837879</v>
       </c>
       <c r="E14">
-        <v>0.1099897084690982</v>
+        <v>0.2440385434196954</v>
       </c>
       <c r="F14">
-        <v>6.196947059553262</v>
+        <v>6.91047512884955</v>
       </c>
       <c r="G14">
-        <v>0.170750760041404</v>
+        <v>0.274531497167821</v>
       </c>
       <c r="H14">
-        <v>0.0002375871844702323</v>
+        <v>0.0004186046835009612</v>
       </c>
       <c r="I14">
-        <v>0.0001500038624854255</v>
+        <v>0.0001821500342927365</v>
       </c>
       <c r="J14">
-        <v>0.08282905588345062</v>
+        <v>0.1081739518915129</v>
       </c>
       <c r="K14">
-        <v>1.537275088671785</v>
+        <v>3.491392311346866</v>
       </c>
       <c r="L14">
-        <v>0.1205755456151401</v>
+        <v>0.2192466562968809</v>
       </c>
       <c r="M14">
-        <v>0.02749938473423845</v>
+        <v>0.03347840958168349</v>
       </c>
       <c r="N14">
-        <v>0.01875526259357568</v>
+        <v>0.02266609051986815</v>
       </c>
       <c r="O14">
-        <v>2.680698750805522E-07</v>
+        <v>3.870600228465369E-07</v>
       </c>
       <c r="P14">
-        <v>0.0007603305416572748</v>
+        <v>0.001064864197957477</v>
       </c>
       <c r="Q14">
-        <v>0.001699001827256646</v>
+        <v>0.002034292530566478</v>
       </c>
       <c r="R14">
-        <v>0.001781178131123033</v>
+        <v>0.002146172401584552</v>
       </c>
       <c r="S14">
-        <v>0.004581041628572742</v>
+        <v>0.007903182014900093</v>
       </c>
       <c r="T14">
-        <v>3.155684580809029E-09</v>
+        <v>4.333016409060206E-09</v>
       </c>
       <c r="U14">
-        <v>1.787673276666678E-06</v>
+        <v>2.74986096682446E-06</v>
       </c>
       <c r="V14">
-        <v>0.06068961058158061</v>
+        <v>0.09029821438041062</v>
       </c>
     </row>
     <row r="15" spans="1:22">
